--- a/Export-Import-Docs/IMPORT FORMATS/invoices.xlsx
+++ b/Export-Import-Docs/IMPORT FORMATS/invoices.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="349">
   <si>
     <t>Customer</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>Customer Name</t>
+  </si>
+  <si>
+    <t>ADM ID</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1499,8 +1502,8 @@
       <c r="B1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
+      <c r="C1" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
